--- a/ATV_Allowance/Templates/TemplateTS_KHK.xlsx
+++ b/ATV_Allowance/Templates/TemplateTS_KHK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\job\ATV-Allowance\ATV-Allowance\ATV_Allowance\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -169,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +203,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,16 +519,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="59" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -572,9 +578,8 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="D5" s="2"/>
-      <c r="E5" s="8" t="s">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="29.25" customHeight="1">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
